--- a/db/productItems.xlsx
+++ b/db/productItems.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MY CODES\POS_SYSTEM\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AE0EEA-1FF7-4759-B4F5-13BDF513C1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D8D86CD-562B-4872-B303-A59F6A8934FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="2160" windowWidth="27315" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6930" yWindow="2205" windowWidth="18390" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -40,18 +40,12 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Jack 'n Jill Piattos Verde</t>
-  </si>
-  <si>
     <t>Small</t>
   </si>
   <si>
     <t>Snacks</t>
   </si>
   <si>
-    <t>Jack 'n Jill Piattos Pula</t>
-  </si>
-  <si>
     <t>Vcute Pula</t>
   </si>
   <si>
@@ -92,12 +86,55 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Piattos Verde</t>
+  </si>
+  <si>
+    <t>Piattos Pula</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>images/1747565122592_Caldereta.png</t>
+  </si>
+  <si>
+    <t>images/1747565790219_Piattos Blue.png</t>
+  </si>
+  <si>
+    <t>Piattos Asul</t>
+  </si>
+  <si>
+    <t>images/1747565952620_Piattos Blue.png</t>
+  </si>
+  <si>
+    <t>Caldereta</t>
+  </si>
+  <si>
+    <t>images/1747565981340_Caldereta.png</t>
+  </si>
+  <si>
+    <t>images/1747566014324_Coke Mismo.png</t>
+  </si>
+  <si>
+    <t>Nova Pula</t>
+  </si>
+  <si>
+    <t>images/1747566039045_Nova Pula.png</t>
+  </si>
+  <si>
+    <t>images/1747566934383_Hotdog.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,21 +503,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="4.0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="12.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="8.7109375"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="35.140625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="5.42578125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="8.5703125"/>
+    <col min="7" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -508,19 +545,19 @@
         <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -528,16 +565,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -545,16 +582,19 @@
         <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -562,16 +602,16 @@
         <v>104</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1">
         <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,16 +619,16 @@
         <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E6" s="1">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,16 +636,16 @@
         <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1">
         <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -613,16 +653,16 @@
         <v>107</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1">
         <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -630,16 +670,19 @@
         <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>16.0</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -647,16 +690,16 @@
         <v>109</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1">
         <v>16</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -664,16 +707,19 @@
         <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>16.0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,16 +727,16 @@
         <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="1">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -698,51 +744,66 @@
         <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="1">
         <v>16</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/db/productItems.xlsx
+++ b/db/productItems.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="61">
   <si>
     <t>ID</t>
   </si>
@@ -128,6 +128,81 @@
   </si>
   <si>
     <t>images/1747566934383_Hotdog.png</t>
+  </si>
+  <si>
+    <t>Hotdog Ni Dino</t>
+  </si>
+  <si>
+    <t>Extra Small</t>
+  </si>
+  <si>
+    <t>Jack n' Jill Piatos Cheese</t>
+  </si>
+  <si>
+    <t>40g</t>
+  </si>
+  <si>
+    <t>images/1747584455985_Piattos Blue.png</t>
+  </si>
+  <si>
+    <t>Jack n' Jill Nova Cheese</t>
+  </si>
+  <si>
+    <t>images/1747584535938_Nova Pula.png</t>
+  </si>
+  <si>
+    <t>1 serving</t>
+  </si>
+  <si>
+    <t>images/1747584587986_Caldereta.png</t>
+  </si>
+  <si>
+    <t>Hotdog in Bun</t>
+  </si>
+  <si>
+    <t>images/1747584642967_Hotdog.png</t>
+  </si>
+  <si>
+    <t>Burger</t>
+  </si>
+  <si>
+    <t>images/1747584686732_Burger.png</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>1 Cup</t>
+  </si>
+  <si>
+    <t>images/1747584740926_Rice.png</t>
+  </si>
+  <si>
+    <t>Royal Mismo</t>
+  </si>
+  <si>
+    <t>295ml</t>
+  </si>
+  <si>
+    <t>images/1747584821942_Royal Mismo.png</t>
+  </si>
+  <si>
+    <t>Coke Mismo</t>
+  </si>
+  <si>
+    <t>images/1747584981887_cokemismonbg.png</t>
+  </si>
+  <si>
+    <t>Footlong</t>
+  </si>
+  <si>
+    <t>Fried Chiken</t>
+  </si>
+  <si>
+    <t>1pc</t>
+  </si>
+  <si>
+    <t>images/1747587252412_Fried Chicken.png</t>
   </si>
 </sst>
 </file>
@@ -503,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
@@ -540,270 +615,184 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F2" s="1" t="s">
+    <row r="2">
+      <c r="A2" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="E2" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F2" t="s" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>102</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="3">
+      <c r="A3" t="n" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="1">
+        <v>42</v>
+      </c>
+      <c r="E3" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F3" t="s" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>103</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" t="n" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="1">
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="n" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="E5" t="n" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F5" t="s" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>104</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
+    <row r="6">
+      <c r="A6" t="n" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="E6" t="n" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F6" t="s" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>105</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
+    <row r="7">
+      <c r="A7" t="n" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="E7" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="F7" t="s" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>106</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    <row r="8">
+      <c r="A8" t="n" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="E8" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F8" t="s" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="E9" t="n" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="1">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F10" t="s" s="1">
         <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>107</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>108</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>109</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="1">
-        <v>16</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>110</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>111</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="1">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>112</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>16</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
